--- a/data/trans_camb/P25_11-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_11-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,05</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-2,29</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6,5</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-3,75</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 2,9</t>
+          <t>-2,68; 7,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 3,52</t>
+          <t>-2,21; 7,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,71</t>
+          <t>1,94; 14,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,03</t>
+          <t>-13,06; 0,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 3,96</t>
+          <t>-1,65; 7,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 12,35</t>
+          <t>-1,37; 6,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 3,02</t>
+          <t>-2,49; 5,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,86</t>
+          <t>1,0; 13,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 6,13</t>
+          <t>-9,37; 4,88</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-8,81; 4,64</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 6,1</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 4,85</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 12,05</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-8,75; 1,31</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 4,09</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-20,41%</t>
+          <t>62,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,46%</t>
+          <t>60,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-27,43%</t>
+          <t>331,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>58,71%</t>
+          <t>-60,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>109,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>194,04%</t>
+          <t>96,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>47,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>218,61%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>-19,61%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-24,95%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>82,15%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>54,19%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>270,36%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-42,1%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-1,51%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,54; 2094,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,21; 676,23</t>
+          <t>-90,92; 63,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,49; 417,18</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 1229,34</t>
+          <t>-44,47; 767,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,95; 223,4</t>
+          <t>-65,08; 519,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-63,0; 219,89</t>
+          <t>-12,59; 1308,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-34,96; 434,61</t>
+          <t>-72,36; 103,25</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-68,89; 92,14</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-38,6; 478,48</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-46,45; 446,76</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>55,03; 988,69</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-72,52; 25,58</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-56,48; 124,25</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 0,52</t>
+          <t>-7,95; 0,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 11,07</t>
+          <t>-5,59; 10,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 10,03</t>
+          <t>-6,46; 3,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 4,62</t>
+          <t>-2,9; 8,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 5,27</t>
+          <t>-8,3; 5,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 9,37</t>
+          <t>-2,92; 5,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 1,45</t>
+          <t>-2,88; 5,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 5,46</t>
+          <t>2,39; 13,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 8,08</t>
+          <t>-7,6; 5,58</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 8,15</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 1,55</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 5,52</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 6,4</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,84; 4,77</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 4,13</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-55,34%</t>
+          <t>-56,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>-5,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>47,33%</t>
+          <t>-20,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>41,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>-18,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>117,37%</t>
+          <t>35,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-23,71%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>217,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>73,4%</t>
+          <t>-9,6%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25,51%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-25,2%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>60,16%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-87,9; 33,43</t>
+          <t>-88,1; 24,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,06; 366,85</t>
+          <t>-73,56; 305,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,84; 300,89</t>
+          <t>-73,45; 102,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-61,27; 278,95</t>
+          <t>-50,24; 407,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,62; 332,71</t>
+          <t>-73,94; 116,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,43; 519,95</t>
+          <t>-56,19; 358,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,84; 54,68</t>
+          <t>-57,58; 400,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,24; 159,94</t>
+          <t>30,46; 883,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 247,54</t>
+          <t>-53,84; 69,39</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-42,53; 154,26</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-64,06; 60,51</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-54,41; 169,11</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-17,71; 190,76</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-38,29; 81,69</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-48,46; 71,44</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 0,26</t>
+          <t>-8,56; -0,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 4,69</t>
+          <t>-6,78; 4,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 4,32</t>
+          <t>-5,78; 3,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 3,56</t>
+          <t>-0,5; 10,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 2,54</t>
+          <t>-0,44; 9,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 7,32</t>
+          <t>-3,92; 4,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 0,92</t>
+          <t>-5,37; 3,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 2,0</t>
+          <t>-2,82; 6,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 4,45</t>
+          <t>-2,06; 9,5</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 8,17</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 1,31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 2,98</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 4,27</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 7,95</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 7,06</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-58,89%</t>
+          <t>-63,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-31,3%</t>
+          <t>-31,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>-10,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,28%</t>
+          <t>90,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,51%</t>
+          <t>75,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-26,71%</t>
+          <t>-7,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-22,1%</t>
+          <t>21,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>29,76%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-21,43%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-16,06%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>45,72%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>34,61%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-89,67; 21,01</t>
+          <t>-90,75; 1,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,99; 216,07</t>
+          <t>-84,75; 173,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-60,87; 143,37</t>
+          <t>-69,8; 114,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-49,27; 46,55</t>
+          <t>-11,59; 315,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,39; 33,76</t>
+          <t>-9,21; 271,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-31,82; 93,02</t>
+          <t>-33,45; 70,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-54,79; 17,62</t>
+          <t>-43,93; 48,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,49; 34,69</t>
+          <t>-25,34; 91,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-34,17; 73,5</t>
+          <t>-16,32; 108,31</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-26,05; 80,68</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-51,47; 23,61</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-47,14; 53,22</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-31,33; 74,53</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 129,01</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-10,2; 100,56</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>-2,59</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,14</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 5,15</t>
+          <t>-4,4; 4,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 4,67</t>
+          <t>-4,69; 4,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 4,96</t>
+          <t>-2,88; 6,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 5,79</t>
+          <t>-4,39; 5,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 7,79</t>
+          <t>-2,66; 7,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 11,25</t>
+          <t>-5,17; 5,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 3,85</t>
+          <t>-3,25; 7,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,82</t>
+          <t>-0,96; 10,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 6,54</t>
+          <t>-8,58; 3,62</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-9,83; 3,6</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 4,18</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 4,61</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 6,87</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 3,04</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 4,26</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>33,83%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>-14,5%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-17,09%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12,66%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>31,9%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-8,96%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-0,86%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,53; 135,38</t>
+          <t>-46,6; 118,01</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-48,19; 131,38</t>
+          <t>-50,16; 113,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,44; 123,95</t>
+          <t>-39,31; 147,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 59,94</t>
+          <t>-40,84; 96,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 80,5</t>
+          <t>-30,32; 187,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 107,57</t>
+          <t>-31,44; 52,39</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 48,24</t>
+          <t>-19,75; 68,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 62,22</t>
+          <t>-6,17; 96,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 84,39</t>
+          <t>-41,51; 24,46</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-45,36; 26,19</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-27,1; 49,44</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-19,93; 56,14</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 83,93</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-32,77; 25,81</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-30,72; 43,98</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>6,86</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,14</t>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>5,42</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>4,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 3,28</t>
+          <t>-4,48; 3,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 4,77</t>
+          <t>-3,84; 4,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,82; 13,18</t>
+          <t>-0,69; 8,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 8,97</t>
+          <t>3,3; 17,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 8,56</t>
+          <t>-0,51; 14,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 13,76</t>
+          <t>-3,18; 9,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 5,43</t>
+          <t>-4,39; 8,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 4,91</t>
+          <t>-0,04; 15,39</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,98; 11,42</t>
+          <t>-7,4; 9,2</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 10,05</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 5,54</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,37; 5,32</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 11,22</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 10,56</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 9,55</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-5,05%</t>
+          <t>-5,85%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>150,69%</t>
+          <t>74,68%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>17,26%</t>
+          <t>113,02%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>56,01%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>58,67%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>72,15%</t>
+          <t>4,26%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>15,45%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>16,22%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>63,91%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>34,11%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>25,08%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-61,77; 123,28</t>
+          <t>-59,77; 124,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-50,47; 174,02</t>
+          <t>-52,04; 153,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>21,78; 423,24</t>
+          <t>-14,04; 280,81</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-27,92; 80,06</t>
+          <t>23,13; 270,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 78,24</t>
+          <t>-4,9; 165,98</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 124,82</t>
+          <t>-18,76; 92,35</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-24,3; 71,09</t>
+          <t>-24,1; 81,68</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 62,87</t>
+          <t>-0,85; 135,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>16,23; 148,38</t>
+          <t>-27,8; 51,74</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-19,92; 58,26</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-21,12; 71,96</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-21,03; 69,06</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>11,71; 140,28</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 78,0</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-7,08; 67,64</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,56</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>13,8</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>9,38</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>7,01</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>6,17</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 16,55</t>
+          <t>-5,84; 11,68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 3,39</t>
+          <t>-12,01; 2,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,48; -0,48</t>
+          <t>-10,72; 4,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 7,99</t>
+          <t>-9,35; 2,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 11,5</t>
+          <t>-2,42; 6,14</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 15,72</t>
+          <t>-7,11; 7,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 9,45</t>
+          <t>-4,36; 12,65</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 6,23</t>
+          <t>-7,02; 8,85</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 7,62</t>
+          <t>3,51; 23,22</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 20,28</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 7,98</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 6,47</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 5,97</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 13,7</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 12,91</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>61,07%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-32,83%</t>
+          <t>-37,78%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-64,67%</t>
+          <t>-19,23%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>-38,84%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>46,85%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>44,18%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>82,6%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>44,45%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>15,56%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-0,95%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>55,72%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>45,99%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-43,14; 313,84</t>
+          <t>-53,73; 205,95</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-81,01; 77,04</t>
+          <t>-80,54; 79,31</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-92,38; 2,05</t>
+          <t>-74,83; 85,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-35,42; 74,47</t>
+          <t>-78,71; 91,31</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 107,29</t>
+          <t>-61,67; 498,45</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 132,13</t>
+          <t>-35,4; 64,8</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 101,14</t>
+          <t>-23,23; 110,98</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-30,15; 63,43</t>
+          <t>-37,16; 68,69</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-30,86; 81,05</t>
+          <t>13,97; 186,5</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 128,26</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-26,08; 88,09</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-30,93; 66,61</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-35,95; 62,43</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 135,85</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 128,92</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 2,32</t>
+          <t>-2,51; 1,98</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,54</t>
+          <t>-2,82; 1,77</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,6</t>
+          <t>-0,98; 3,5</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,98</t>
+          <t>-0,92; 4,16</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,57</t>
+          <t>0,14; 5,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,28; 8,25</t>
+          <t>-1,32; 3,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,83</t>
+          <t>-1,04; 3,74</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,85</t>
+          <t>1,59; 7,15</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,66</t>
+          <t>0,0; 6,16</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 5,41</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 2,02</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 2,21</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 4,84</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 4,24</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 4,33</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>-7,19%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-10,45%</t>
+          <t>-9,76%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>41,15%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>20,02%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>13,13%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>36,59%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>20,09%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-37,17; 52,3</t>
+          <t>-37,08; 42,88</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-41,32; 35,25</t>
+          <t>-41,66; 40,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 57,4</t>
+          <t>-14,07; 74,2</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 32,58</t>
+          <t>-11,38; 69,27</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 38,12</t>
+          <t>2,05; 99,96</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>17,6; 86,75</t>
+          <t>-11,97; 35,42</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 25,62</t>
+          <t>-9,44; 39,49</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 26,35</t>
+          <t>13,15; 77,66</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>11,68; 62,81</t>
+          <t>-0,13; 45,03</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 37,93</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-13,47; 26,48</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-12,94; 30,8</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>13,33; 66,77</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 42,76</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 43,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
